--- a/biology/Botanique/Lavoixia_macrocarpa/Lavoixia_macrocarpa.xlsx
+++ b/biology/Botanique/Lavoixia_macrocarpa/Lavoixia_macrocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lavoixia macrocarpa est une espèce de plantes à fleurs de la famille des Arecaceae (Palmiers). C'est la seule espèce  du genre Lavoixia. Elle a été, depuis, déplacé dans le genre Clinosperma[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lavoixia macrocarpa est une espèce de plantes à fleurs de la famille des Arecaceae (Palmiers). C'est la seule espèce  du genre Lavoixia. Elle a été, depuis, déplacé dans le genre Clinosperma,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille des Arecoideae
 Tribu des Areceae
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lavoixia macrocarpa est endémique à la Nouvelle-Calédonie. Elle a un habitat extrêmement localisé, elle pousse aux alentours de 450 mètres d'altitude, sur le Mont Panié, dans une forêt humide et sous un climat subtropical.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lavoixia macrocarpa est un palmier au stipe solitaire, de taille moyenne, encerclé d'anneaux disposés à intervalles réguliers. Il possède des fruits globuleux et des feuilles pennées. C'est un palmier mal connu, étant donné son extrême rareté.
 </t>
@@ -605,7 +623,9 @@
           <t>Risque d'extinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitat extrêmement restreint du Lavoixia macrocarpa compromet grandement sa survie. L'espèce est classée en danger critique d'extinction (CR D) sur la Liste rouge de l'UICN
 </t>
